--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -638,27 +638,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 26258-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 26258-2020.xlsx", "A 26258-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 26258-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 26258-2020.png", "A 26258-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 26258-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 26258-2020.docx", "A 26258-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 26258-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 26258-2020.docx", "A 26258-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 26258-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 26258-2020.docx", "A 26258-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 26258-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 26258-2020.docx", "A 26258-2020")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -733,31 +733,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 27710-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 27710-2020.xlsx", "A 27710-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 27710-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 27710-2020.png", "A 27710-2020")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/knärot/A 27710-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/knärot/A 27710-2020.png", "A 27710-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 27710-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 27710-2020.docx", "A 27710-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 27710-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 27710-2020.docx", "A 27710-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 27710-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 27710-2020.docx", "A 27710-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 27710-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 27710-2020.docx", "A 27710-2020")</f>
         <v/>
       </c>
     </row>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,27 +830,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 63334-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 63334-2019.xlsx", "A 63334-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 63334-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 63334-2019.png", "A 63334-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 63334-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 63334-2019.docx", "A 63334-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 63334-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 63334-2019.docx", "A 63334-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 63334-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 63334-2019.docx", "A 63334-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 63334-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 63334-2019.docx", "A 63334-2019")</f>
         <v/>
       </c>
     </row>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,27 +916,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 71028-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 71028-2021.xlsx", "A 71028-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 71028-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 71028-2021.png", "A 71028-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 71028-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 71028-2021.docx", "A 71028-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 71028-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 71028-2021.docx", "A 71028-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 71028-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 71028-2021.docx", "A 71028-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 71028-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 71028-2021.docx", "A 71028-2021")</f>
         <v/>
       </c>
     </row>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,27 +1007,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 28308-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 28308-2022.xlsx", "A 28308-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 28308-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 28308-2022.png", "A 28308-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 28308-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 28308-2022.docx", "A 28308-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 28308-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 28308-2022.docx", "A 28308-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 28308-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 28308-2022.docx", "A 28308-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 28308-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 28308-2022.docx", "A 28308-2022")</f>
         <v/>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,27 +1097,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 25312-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 25312-2019.xlsx", "A 25312-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 25312-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 25312-2019.png", "A 25312-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 25312-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 25312-2019.docx", "A 25312-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 25312-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 25312-2019.docx", "A 25312-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 25312-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 25312-2019.docx", "A 25312-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 25312-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 25312-2019.docx", "A 25312-2019")</f>
         <v/>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,27 +1187,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 49510-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 49510-2019.xlsx", "A 49510-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 49510-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 49510-2019.png", "A 49510-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 49510-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 49510-2019.docx", "A 49510-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 49510-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 49510-2019.docx", "A 49510-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 49510-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 49510-2019.docx", "A 49510-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 49510-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 49510-2019.docx", "A 49510-2019")</f>
         <v/>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,31 +1272,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 53268-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 53268-2020.xlsx", "A 53268-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 53268-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 53268-2020.png", "A 53268-2020")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/knärot/A 53268-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/knärot/A 53268-2020.png", "A 53268-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 53268-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 53268-2020.docx", "A 53268-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 53268-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 53268-2020.docx", "A 53268-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 53268-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 53268-2020.docx", "A 53268-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 53268-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 53268-2020.docx", "A 53268-2020")</f>
         <v/>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,27 +1366,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 51149-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 51149-2022.xlsx", "A 51149-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 51149-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 51149-2022.png", "A 51149-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 51149-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 51149-2022.docx", "A 51149-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 51149-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 51149-2022.docx", "A 51149-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 51149-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 51149-2022.docx", "A 51149-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 51149-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 51149-2022.docx", "A 51149-2022")</f>
         <v/>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,27 +1456,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 59418-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/artfynd/A 59418-2022.xlsx", "A 59418-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 59418-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/kartor/A 59418-2022.png", "A 59418-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 59418-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 59418-2022.docx", "A 59418-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 59418-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 59418-2022.docx", "A 59418-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 59418-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 59418-2022.docx", "A 59418-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 59418-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 59418-2022.docx", "A 59418-2022")</f>
         <v/>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11805,23 +11805,23 @@
       </c>
       <c r="R186" s="2" t="inlineStr"/>
       <c r="U186">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/knärot/A 44074-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/knärot/A 44074-2022.png", "A 44074-2022")</f>
         <v/>
       </c>
       <c r="V186">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 44074-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomål/A 44074-2022.docx", "A 44074-2022")</f>
         <v/>
       </c>
       <c r="W186">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 44074-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/klagomålsmail/A 44074-2022.docx", "A 44074-2022")</f>
         <v/>
       </c>
       <c r="X186">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 44074-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsyn/A 44074-2022.docx", "A 44074-2022")</f>
         <v/>
       </c>
       <c r="Y186">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 44074-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOXHOLM/tillsynsmail/A 44074-2022.docx", "A 44074-2022")</f>
         <v/>
       </c>
     </row>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y230"/>
+  <dimension ref="A1:Y232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="R229" s="2" t="inlineStr"/>
     </row>
-    <row r="230">
+    <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
           <t>A 39031-2023</t>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,6 +14412,120 @@
         <v>0</v>
       </c>
       <c r="R230" s="2" t="inlineStr"/>
+    </row>
+    <row r="231" ht="15" customHeight="1">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>A 43807-2023</t>
+        </is>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C231" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>BOXHOLM</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" s="2" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>A 43824-2023</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>BOXHOLM</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45187</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45187</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45187</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45187</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y232"/>
+  <dimension ref="A1:Y233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45187</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
       </c>
       <c r="R231" s="2" t="inlineStr"/>
     </row>
-    <row r="232">
+    <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
           <t>A 43824-2023</t>
@@ -14480,7 +14480,7 @@
         <v>45187</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,6 +14526,63 @@
         <v>0</v>
       </c>
       <c r="R232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>A 46316-2023</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>BOXHOLM</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45187</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45187</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>45197</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45187</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45187</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>45197</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45187</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45187</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>45197</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y233"/>
+  <dimension ref="A1:Y234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43986</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43994</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43794</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44537</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44747</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43606</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44123</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44868</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43323</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43380</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43461</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43500</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43503</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43515</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43535</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>43546</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43560</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43565</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43584</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43587</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43634</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43647</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43655</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43683</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43688</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43696</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43696</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43697</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43711</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43717</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43717</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43717</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43731</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43733</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>43733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43759</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43759</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43761</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43762</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43773</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43773</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43803</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43814</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43871</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43879</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43879</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43880</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43892</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43900</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43908</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43921</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43929</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43948</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43949</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43965</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43976</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43983</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44036</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44036</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44056</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44060</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44060</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44060</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44064</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44071</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44071</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>44074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44081</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44083</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44084</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44110</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44117</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44130</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44132</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44138</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44141</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44144</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>44145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44158</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44193</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44225</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44237</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44249</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44257</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44274</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44285</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44347</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44370</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44384</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44384</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44455</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44455</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44456</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44460</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44477</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44497</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44498</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44507</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44515</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44523</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44523</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44537</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44538</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44557</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44580</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44585</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44585</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44692</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44693</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44750</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44809</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44819</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44834</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44836</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44846</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44858</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44873</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44886</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44904</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>44914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44914</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44914</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44942</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44980</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44980</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45027</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45043</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45062</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45063</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45086</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45086</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45092</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45117</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45141</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45147</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45159</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45187</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45187</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="R232" s="2" t="inlineStr"/>
     </row>
-    <row r="233">
+    <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
           <t>A 46316-2023</t>
@@ -14537,7 +14537,7 @@
         <v>45197</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,6 +14583,63 @@
         <v>0</v>
       </c>
       <c r="R233" s="2" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>A 47978-2023</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>BOXHOLM</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
